--- a/src/Python数据分析与挖掘实战/环境数据预测蔬菜价格/December.xlsx
+++ b/src/Python数据分析与挖掘实战/环境数据预测蔬菜价格/December.xlsx
@@ -263,8 +263,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -295,9 +295,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,15 +304,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,22 +326,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,26 +362,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -410,14 +402,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -447,7 +447,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,13 +483,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,31 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,43 +573,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,49 +585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,6 +604,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,11 +665,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,17 +695,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,7 +708,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,7 +743,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,153 +755,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1221,7 +1222,7 @@
   <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1313,7 +1314,7 @@
       <c r="M2" s="2">
         <v>6.52</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="3">
         <v>97</v>
       </c>
     </row>
@@ -1357,7 +1358,7 @@
       <c r="M3" s="2">
         <v>9.67</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="3">
         <v>509</v>
       </c>
     </row>
@@ -1401,7 +1402,7 @@
       <c r="M4" s="2">
         <v>10.1</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="3">
         <v>251</v>
       </c>
     </row>
@@ -1445,7 +1446,7 @@
       <c r="M5" s="2">
         <v>8.04</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="3">
         <v>145</v>
       </c>
     </row>
@@ -1489,7 +1490,7 @@
       <c r="M6" s="2">
         <v>11.21</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="3">
         <v>6</v>
       </c>
     </row>
@@ -1533,8 +1534,8 @@
       <c r="M7" s="2">
         <v>9.29</v>
       </c>
-      <c r="N7" s="2">
-        <v>82</v>
+      <c r="N7" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:14">
@@ -1577,7 +1578,7 @@
       <c r="M8" s="2">
         <v>3.6</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="3">
         <v>157</v>
       </c>
     </row>
@@ -1621,8 +1622,8 @@
       <c r="M9" s="2">
         <v>9</v>
       </c>
-      <c r="N9" s="2">
-        <v>182</v>
+      <c r="N9" s="3">
+        <v>237</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:14">
@@ -1665,7 +1666,7 @@
       <c r="M10" s="2">
         <v>4.48</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="3">
         <v>207</v>
       </c>
     </row>
@@ -1709,7 +1710,7 @@
       <c r="M11" s="2">
         <v>1.54</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="3">
         <v>25</v>
       </c>
     </row>
@@ -1753,7 +1754,7 @@
       <c r="M12" s="2">
         <v>8.81</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="3">
         <v>110</v>
       </c>
     </row>
@@ -1797,7 +1798,7 @@
       <c r="M13" s="2">
         <v>11.29</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="3">
         <v>99</v>
       </c>
     </row>
@@ -1841,7 +1842,7 @@
       <c r="M14" s="2">
         <v>9.42</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="3">
         <v>194</v>
       </c>
     </row>
@@ -1885,7 +1886,7 @@
       <c r="M15" s="2">
         <v>12.75</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="3">
         <v>155</v>
       </c>
     </row>
@@ -1929,7 +1930,7 @@
       <c r="M16" s="2">
         <v>15.27</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="3">
         <v>166</v>
       </c>
     </row>
@@ -1973,7 +1974,7 @@
       <c r="M17" s="2">
         <v>11.5</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
     </row>
@@ -2017,7 +2018,7 @@
       <c r="M18" s="2">
         <v>11.58</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="3">
         <v>51</v>
       </c>
     </row>
@@ -2061,9 +2062,7 @@
       <c r="M19" s="2">
         <v>8.5</v>
       </c>
-      <c r="N19" s="2">
-        <v>26</v>
-      </c>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" ht="15" spans="1:14">
       <c r="A20" s="1" t="s">
@@ -2105,7 +2104,7 @@
       <c r="M20" s="2">
         <v>1.21</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2149,7 +2148,7 @@
       <c r="M21" s="2">
         <v>11.1</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="3">
         <v>441</v>
       </c>
     </row>
@@ -2193,7 +2192,7 @@
       <c r="M22" s="2">
         <v>6.83</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="3">
         <v>18</v>
       </c>
     </row>
@@ -2237,7 +2236,7 @@
       <c r="M23" s="2">
         <v>0</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="3">
         <v>48</v>
       </c>
     </row>
@@ -2281,7 +2280,7 @@
       <c r="M24" s="2">
         <v>0.56</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="3">
         <v>29</v>
       </c>
     </row>
@@ -2325,7 +2324,7 @@
       <c r="M25" s="2">
         <v>2.44</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="3">
         <v>18</v>
       </c>
     </row>
@@ -2369,7 +2368,7 @@
       <c r="M26" s="2">
         <v>0</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="3">
         <v>42</v>
       </c>
     </row>
@@ -2413,7 +2412,7 @@
       <c r="M27" s="2">
         <v>1.42</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="3">
         <v>22</v>
       </c>
     </row>
@@ -2457,8 +2456,8 @@
       <c r="M28" s="2">
         <v>0.08</v>
       </c>
-      <c r="N28" s="2">
-        <v>22</v>
+      <c r="N28" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:14">
@@ -2501,8 +2500,8 @@
       <c r="M29" s="2">
         <v>0.06</v>
       </c>
-      <c r="N29" s="2">
-        <v>38</v>
+      <c r="N29" s="3">
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:14">
@@ -2545,7 +2544,7 @@
       <c r="M30" s="2">
         <v>3.19</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="3">
         <v>53</v>
       </c>
     </row>
@@ -2589,7 +2588,7 @@
       <c r="M31" s="2">
         <v>1</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="3">
         <v>59</v>
       </c>
     </row>
@@ -2633,7 +2632,7 @@
       <c r="M32" s="2">
         <v>1.67</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="3">
         <v>158</v>
       </c>
     </row>
@@ -2677,7 +2676,7 @@
       <c r="M33" s="2">
         <v>3.33</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="3">
         <v>50</v>
       </c>
     </row>
@@ -2721,7 +2720,7 @@
       <c r="M34" s="2">
         <v>10.06</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="3">
         <v>132</v>
       </c>
     </row>
@@ -2765,8 +2764,8 @@
       <c r="M35" s="2">
         <v>0.21</v>
       </c>
-      <c r="N35" s="2">
-        <v>148</v>
+      <c r="N35" s="3">
+        <v>181</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:14">
@@ -2809,7 +2808,7 @@
       <c r="M36" s="2">
         <v>8.47</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36" s="3">
         <v>163</v>
       </c>
     </row>
@@ -2853,7 +2852,7 @@
       <c r="M37" s="2">
         <v>9.29</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37" s="3">
         <v>45</v>
       </c>
     </row>
@@ -2897,8 +2896,8 @@
       <c r="M38" s="2">
         <v>10.6</v>
       </c>
-      <c r="N38" s="2">
-        <v>56</v>
+      <c r="N38" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:14">
@@ -2941,7 +2940,7 @@
       <c r="M39" s="2">
         <v>9.25</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39" s="3">
         <v>68</v>
       </c>
     </row>
@@ -2985,7 +2984,7 @@
       <c r="M40" s="2">
         <v>5.94</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40" s="3">
         <v>110</v>
       </c>
     </row>
@@ -3029,7 +3028,7 @@
       <c r="M41" s="2">
         <v>7.19</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="3">
         <v>63</v>
       </c>
     </row>
@@ -3073,8 +3072,8 @@
       <c r="M42" s="2">
         <v>8.88</v>
       </c>
-      <c r="N42" s="2">
-        <v>63</v>
+      <c r="N42" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:14">
@@ -3117,9 +3116,7 @@
       <c r="M43" s="2">
         <v>0.04</v>
       </c>
-      <c r="N43" s="2">
-        <v>63</v>
-      </c>
+      <c r="N43" s="3"/>
     </row>
     <row r="44" ht="15" spans="1:14">
       <c r="A44" s="1" t="s">
@@ -3161,9 +3158,7 @@
       <c r="M44" s="2">
         <v>2.92</v>
       </c>
-      <c r="N44" s="2">
-        <v>35</v>
-      </c>
+      <c r="N44" s="3"/>
     </row>
     <row r="45" ht="15" spans="1:14">
       <c r="A45" s="1" t="s">
@@ -3205,7 +3200,7 @@
       <c r="M45" s="2">
         <v>0.29</v>
       </c>
-      <c r="N45" s="2">
+      <c r="N45" s="3">
         <v>7</v>
       </c>
     </row>
@@ -3249,7 +3244,7 @@
       <c r="M46" s="2">
         <v>3.69</v>
       </c>
-      <c r="N46" s="2">
+      <c r="N46" s="3">
         <v>107</v>
       </c>
     </row>
@@ -3293,7 +3288,7 @@
       <c r="M47" s="2">
         <v>4.33</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N47" s="3">
         <v>142</v>
       </c>
     </row>
@@ -3337,7 +3332,7 @@
       <c r="M48" s="2">
         <v>3.81</v>
       </c>
-      <c r="N48" s="2">
+      <c r="N48" s="3">
         <v>95</v>
       </c>
     </row>
@@ -3381,7 +3376,7 @@
       <c r="M49" s="2">
         <v>6.31</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N49" s="3">
         <v>74</v>
       </c>
     </row>
@@ -3425,7 +3420,7 @@
       <c r="M50" s="2">
         <v>9.35</v>
       </c>
-      <c r="N50" s="2">
+      <c r="N50" s="3">
         <v>69</v>
       </c>
     </row>
@@ -3469,7 +3464,7 @@
       <c r="M51" s="2">
         <v>5.02</v>
       </c>
-      <c r="N51" s="2">
+      <c r="N51" s="3">
         <v>120</v>
       </c>
     </row>
@@ -3513,7 +3508,7 @@
       <c r="M52" s="2">
         <v>3.67</v>
       </c>
-      <c r="N52" s="2">
+      <c r="N52" s="3">
         <v>4</v>
       </c>
     </row>
@@ -3557,7 +3552,7 @@
       <c r="M53" s="2">
         <v>4.96</v>
       </c>
-      <c r="N53" s="2">
+      <c r="N53" s="3">
         <v>62</v>
       </c>
     </row>
@@ -3601,7 +3596,7 @@
       <c r="M54" s="2">
         <v>3.02</v>
       </c>
-      <c r="N54" s="2">
+      <c r="N54" s="3">
         <v>41</v>
       </c>
     </row>
@@ -3645,8 +3640,8 @@
       <c r="M55" s="2">
         <v>4.67</v>
       </c>
-      <c r="N55" s="2">
-        <v>34</v>
+      <c r="N55" s="3">
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:14">
@@ -3689,7 +3684,7 @@
       <c r="M56" s="2">
         <v>0</v>
       </c>
-      <c r="N56" s="2">
+      <c r="N56" s="3">
         <v>26</v>
       </c>
     </row>
@@ -3733,8 +3728,8 @@
       <c r="M57" s="2">
         <v>0</v>
       </c>
-      <c r="N57" s="2">
-        <v>26</v>
+      <c r="N57" s="3">
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:14">
@@ -3777,8 +3772,8 @@
       <c r="M58" s="2">
         <v>2.33</v>
       </c>
-      <c r="N58" s="2">
-        <v>26</v>
+      <c r="N58" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="15" spans="1:14">
@@ -3821,8 +3816,8 @@
       <c r="M59" s="2">
         <v>2.23</v>
       </c>
-      <c r="N59" s="2">
-        <v>26</v>
+      <c r="N59" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:14">
@@ -3865,8 +3860,8 @@
       <c r="M60" s="2">
         <v>8.06</v>
       </c>
-      <c r="N60" s="2">
-        <v>26</v>
+      <c r="N60" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:14">
@@ -3909,8 +3904,8 @@
       <c r="M61" s="2">
         <v>6.92</v>
       </c>
-      <c r="N61" s="2">
-        <v>28</v>
+      <c r="N61" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:14">
@@ -3953,7 +3948,7 @@
       <c r="M62" s="2">
         <v>6.62</v>
       </c>
-      <c r="N62" s="2">
+      <c r="N62" s="3">
         <v>30</v>
       </c>
     </row>
@@ -3997,7 +3992,7 @@
       <c r="M63" s="2">
         <v>7.44</v>
       </c>
-      <c r="N63" s="2">
+      <c r="N63" s="3">
         <v>57</v>
       </c>
     </row>
@@ -4041,7 +4036,7 @@
       <c r="M64" s="2">
         <v>8.5</v>
       </c>
-      <c r="N64" s="2">
+      <c r="N64" s="3">
         <v>104</v>
       </c>
     </row>
@@ -4085,7 +4080,7 @@
       <c r="M65" s="2">
         <v>12.6</v>
       </c>
-      <c r="N65" s="2">
+      <c r="N65" s="3">
         <v>19</v>
       </c>
     </row>
@@ -4129,7 +4124,7 @@
       <c r="M66" s="2">
         <v>7.27</v>
       </c>
-      <c r="N66" s="2">
+      <c r="N66" s="3">
         <v>169</v>
       </c>
     </row>
@@ -4173,7 +4168,7 @@
       <c r="M67" s="2">
         <v>3.62</v>
       </c>
-      <c r="N67" s="2">
+      <c r="N67" s="3">
         <v>32</v>
       </c>
     </row>
@@ -4217,7 +4212,7 @@
       <c r="M68" s="2">
         <v>7.77</v>
       </c>
-      <c r="N68" s="2">
+      <c r="N68" s="3">
         <v>30</v>
       </c>
     </row>
@@ -4261,7 +4256,7 @@
       <c r="M69" s="2">
         <v>1.92</v>
       </c>
-      <c r="N69" s="2">
+      <c r="N69" s="3">
         <v>100</v>
       </c>
     </row>
@@ -4305,7 +4300,7 @@
       <c r="M70" s="2">
         <v>3.77</v>
       </c>
-      <c r="N70" s="2">
+      <c r="N70" s="3">
         <v>96</v>
       </c>
     </row>
@@ -4349,7 +4344,7 @@
       <c r="M71" s="2">
         <v>0.02</v>
       </c>
-      <c r="N71" s="2">
+      <c r="N71" s="3">
         <v>14</v>
       </c>
     </row>
@@ -4393,7 +4388,7 @@
       <c r="M72" s="2">
         <v>0.73</v>
       </c>
-      <c r="N72" s="2">
+      <c r="N72" s="3">
         <v>3</v>
       </c>
     </row>
@@ -4437,7 +4432,7 @@
       <c r="M73" s="2">
         <v>1.35</v>
       </c>
-      <c r="N73" s="2">
+      <c r="N73" s="3">
         <v>10</v>
       </c>
     </row>
@@ -4481,8 +4476,8 @@
       <c r="M74" s="2">
         <v>1.4</v>
       </c>
-      <c r="N74" s="2">
-        <v>21</v>
+      <c r="N74" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="15" spans="1:14">
@@ -4525,7 +4520,7 @@
       <c r="M75" s="2">
         <v>1.77</v>
       </c>
-      <c r="N75" s="2">
+      <c r="N75" s="3">
         <v>32</v>
       </c>
     </row>
@@ -4569,7 +4564,7 @@
       <c r="M76" s="2">
         <v>1.67</v>
       </c>
-      <c r="N76" s="2">
+      <c r="N76" s="3">
         <v>45</v>
       </c>
     </row>
@@ -4613,7 +4608,7 @@
       <c r="M77" s="2">
         <v>1.71</v>
       </c>
-      <c r="N77" s="2">
+      <c r="N77" s="3">
         <v>71</v>
       </c>
     </row>
@@ -4657,7 +4652,7 @@
       <c r="M78" s="2">
         <v>0</v>
       </c>
-      <c r="N78" s="2">
+      <c r="N78" s="3">
         <v>68</v>
       </c>
     </row>
@@ -4701,7 +4696,7 @@
       <c r="M79" s="2">
         <v>0.65</v>
       </c>
-      <c r="N79" s="2">
+      <c r="N79" s="3">
         <v>18</v>
       </c>
     </row>
@@ -4745,7 +4740,7 @@
       <c r="M80" s="2">
         <v>0.92</v>
       </c>
-      <c r="N80" s="2">
+      <c r="N80" s="3">
         <v>20</v>
       </c>
     </row>
